--- a/grafikai.xlsx
+++ b/grafikai.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69174C11-82E2-487C-A859-834C5B6C21D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CE9B6-88BE-4536-8462-075133D4F416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17925" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -92,6 +104,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -233,7 +247,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -402,7 +416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -484,7 +498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -516,7 +530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -558,7 +572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -595,7 +609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -684,7 +698,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -748,7 +762,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -825,34 +839,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>93.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.67</c:v>
+                  <c:v>92.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.33</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>50.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.33</c:v>
+                  <c:v>80.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>69.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>85.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.33</c:v>
+                  <c:v>88.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98</c:v>
+                  <c:v>86.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -1001,7 +1015,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1033,7 +1047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -1075,7 +1089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1112,7 +1126,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1201,7 +1215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1265,7 +1279,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1342,34 +1356,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>99.33</c:v>
+                  <c:v>89.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>88.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.67</c:v>
+                  <c:v>56.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.67</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.33</c:v>
+                  <c:v>88.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.33</c:v>
+                  <c:v>81.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.33</c:v>
+                  <c:v>82.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.33</c:v>
+                  <c:v>84.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.67</c:v>
+                  <c:v>89.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.33</c:v>
+                  <c:v>83.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -1518,7 +1532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1550,7 +1564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -1592,7 +1606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1629,7 +1643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1718,7 +1732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1782,7 +1796,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1859,34 +1873,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>97.67</c:v>
+                  <c:v>89.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.67</c:v>
+                  <c:v>65.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.67</c:v>
+                  <c:v>51.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.33</c:v>
+                  <c:v>84.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.33</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>80.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>81.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.67</c:v>
+                  <c:v>86.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.33</c:v>
+                  <c:v>80.849999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +1966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -2035,7 +2049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2067,7 +2081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -2109,7 +2123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2146,7 +2160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2223,7 +2237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2277,7 +2291,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2338,19 +2352,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>92.17</c:v>
+                  <c:v>81.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.4</c:v>
+                  <c:v>81.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.47</c:v>
+                  <c:v>80.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.03</c:v>
+                  <c:v>81.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.33</c:v>
+                  <c:v>79.790000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,7 +2429,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042212879"/>
@@ -2499,7 +2513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2531,7 +2545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096485871"/>
@@ -2573,7 +2587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2610,7 +2624,2946 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Bendras metodo tikslumas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> KP iteracijose</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bendras tikslumas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$137:$O$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>83.724999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.775000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21EF-455E-B089-12C9C850F885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1452129232"/>
+        <c:axId val="1452468768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1452129232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1452468768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1452468768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1452129232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Skaitmenų</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> atpažinimas pirmoje KP iteracijoje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skaitmens atpažinimas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$127:$K$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9B9-4865-8B4B-ACFBC8460EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377893440"/>
+        <c:axId val="1377769344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377769344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377769344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Skaitmenų</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> atpažinimas antroje KP iteracijoje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skaitmens atpažinimas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$127:$L$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-379E-4525-8E16-2CB81C36415C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377893440"/>
+        <c:axId val="1377769344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377769344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377769344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Skaitmenų</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> atpažinimas trečioje KP iteracijoje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skaitmens atpažinimas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$127:$M$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAED-4B17-8AE8-7123EE7EC666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377893440"/>
+        <c:axId val="1377769344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377769344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377769344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Skaitmenų</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> atpažinimas ketvirtoje KP iteracijoje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skaitmens atpažinimas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$127:$N$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>78.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCF3-45CF-8AD2-DB12E371442A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377893440"/>
+        <c:axId val="1377769344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377769344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377769344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lt-LT"/>
+              <a:t>Skaitmenų</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lt-LT" baseline="0"/>
+              <a:t> atpažinimas penktoje KP iteracijoje</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skaitmens atpažinimas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$127:$O$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4225-457F-88AD-DD62D0C436A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377893440"/>
+        <c:axId val="1377769344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377769344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377769344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lt-LT"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2691,7 +5644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2745,7 +5698,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2915,7 +5868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377746048"/>
@@ -2998,7 +5951,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3030,7 +5983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377905040"/>
@@ -3072,7 +6025,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3109,7 +6062,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3198,7 +6151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3252,7 +6205,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3421,7 +6374,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377783072"/>
@@ -3504,7 +6457,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3536,7 +6489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1376509104"/>
@@ -3578,7 +6531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3615,7 +6568,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3696,7 +6649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3750,7 +6703,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3919,7 +6872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513108816"/>
@@ -4001,7 +6954,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4033,7 +6986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377885440"/>
@@ -4075,7 +7028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4112,7 +7065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4193,7 +7146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4247,7 +7200,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4417,7 +7370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377796384"/>
@@ -4500,7 +7453,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4532,7 +7485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513166688"/>
@@ -4574,7 +7527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4611,7 +7564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4692,7 +7645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4746,7 +7699,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4861,7 +7814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452468768"/>
@@ -4944,7 +7897,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4976,7 +7929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452129232"/>
@@ -5018,7 +7971,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5055,7 +8008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5136,7 +8089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5190,7 +8143,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5328,7 +8281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377756032"/>
@@ -5411,7 +8364,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5443,7 +8396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452128832"/>
@@ -5485,7 +8438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5522,7 +8475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5608,7 +8561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5662,7 +8615,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5802,7 +8755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452458784"/>
@@ -5885,7 +8838,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5917,7 +8870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1526741184"/>
@@ -5959,7 +8912,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5996,7 +8949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6077,7 +9030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6131,7 +9084,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="lt-LT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6271,7 +9224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377762272"/>
@@ -6354,7 +9307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="lt-LT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6386,7 +9339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="lt-LT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1453397520"/>
@@ -6428,7 +9381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="lt-LT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6465,7 +9418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="lt-LT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6637,6 +9590,246 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9009,6 +12202,3024 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14009,6 +20220,234 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19817B94-D306-42D5-A877-B2A87670A14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C136CDD-E76F-47B4-91A4-580A8AB0DDF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8225454A-74ED-4DEF-9A12-973DC16D4129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C554779-2BED-4F98-A831-FCDB4A27BA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CF6D2C-21F8-4967-8E91-AC31418F6EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771C6812-5ECC-4684-8D5A-22B1DEC31BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14277,8 +20716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="BB165" sqref="BB165"/>
+    <sheetView tabSelected="1" topLeftCell="H127" workbookViewId="0">
+      <selection activeCell="P141" sqref="P141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14288,7 +20727,13 @@
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="16" width="3.28515625" customWidth="1"/>
+    <col min="7" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" customWidth="1"/>
     <col min="21" max="34" width="5.7109375" customWidth="1"/>
     <col min="35" max="35" width="2.7109375" customWidth="1"/>
@@ -19534,7 +25979,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="97" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:23" x14ac:dyDescent="0.25">
       <c r="V97">
         <v>200</v>
       </c>
@@ -19542,7 +25987,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="98" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:23" x14ac:dyDescent="0.25">
       <c r="V98">
         <v>300</v>
       </c>
@@ -19550,7 +25995,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="99" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:23" x14ac:dyDescent="0.25">
       <c r="V99">
         <v>400</v>
       </c>
@@ -19558,7 +26003,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="100" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:23" x14ac:dyDescent="0.25">
       <c r="V100">
         <v>500</v>
       </c>
@@ -19566,259 +26011,859 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="112" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N112">
+        <v>97.5</v>
+      </c>
+      <c r="O112">
+        <v>94</v>
+      </c>
+      <c r="P112">
+        <v>88</v>
+      </c>
+      <c r="Q112">
+        <v>93</v>
+      </c>
+      <c r="R112">
+        <v>97.25</v>
+      </c>
       <c r="V112">
         <v>0</v>
       </c>
       <c r="W112">
-        <v>100</v>
+        <f>AVERAGE(N112:R112)</f>
+        <v>93.95</v>
       </c>
     </row>
-    <row r="113" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N113">
+        <v>96.75</v>
+      </c>
+      <c r="O113">
+        <v>99</v>
+      </c>
+      <c r="P113">
+        <v>96.5</v>
+      </c>
+      <c r="Q113">
+        <v>97</v>
+      </c>
+      <c r="R113">
+        <v>75.25</v>
+      </c>
       <c r="V113">
         <v>1</v>
       </c>
       <c r="W113">
-        <v>99.67</v>
+        <f t="shared" ref="W113:W121" si="0">AVERAGE(N113:R113)</f>
+        <v>92.9</v>
       </c>
     </row>
-    <row r="114" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <v>65.75</v>
+      </c>
+      <c r="O114">
+        <v>57.5</v>
+      </c>
+      <c r="P114">
+        <v>57.75</v>
+      </c>
+      <c r="Q114">
+        <v>77.75</v>
+      </c>
+      <c r="R114">
+        <v>32.25</v>
+      </c>
       <c r="V114">
         <v>2</v>
       </c>
       <c r="W114">
-        <v>90.33</v>
+        <f t="shared" si="0"/>
+        <v>58.2</v>
       </c>
     </row>
-    <row r="115" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N115">
+        <v>66</v>
+      </c>
+      <c r="O115">
+        <v>90.75</v>
+      </c>
+      <c r="P115">
+        <v>30.5</v>
+      </c>
+      <c r="Q115">
+        <v>27.25</v>
+      </c>
+      <c r="R115">
+        <v>38.75</v>
+      </c>
       <c r="V115">
         <v>3</v>
       </c>
       <c r="W115">
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>50.65</v>
       </c>
     </row>
-    <row r="116" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <v>80.25</v>
+      </c>
+      <c r="O116">
+        <v>98</v>
+      </c>
+      <c r="P116">
+        <v>80.25</v>
+      </c>
+      <c r="Q116">
+        <v>90</v>
+      </c>
+      <c r="R116">
+        <v>90.25</v>
+      </c>
       <c r="V116">
         <v>4</v>
       </c>
       <c r="W116">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>87.75</v>
       </c>
     </row>
-    <row r="117" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N117">
+        <v>84</v>
+      </c>
+      <c r="O117">
+        <v>82.75</v>
+      </c>
+      <c r="P117">
+        <v>70.75</v>
+      </c>
+      <c r="Q117">
+        <v>80.25</v>
+      </c>
+      <c r="R117">
+        <v>82.5</v>
+      </c>
       <c r="V117">
         <v>5</v>
       </c>
       <c r="W117">
-        <v>93.33</v>
+        <f t="shared" si="0"/>
+        <v>80.05</v>
       </c>
     </row>
-    <row r="118" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N118">
+        <v>73.25</v>
+      </c>
+      <c r="O118">
+        <v>91.25</v>
+      </c>
+      <c r="P118">
+        <v>49</v>
+      </c>
+      <c r="Q118">
+        <v>59</v>
+      </c>
+      <c r="R118">
+        <v>74.75</v>
+      </c>
       <c r="V118">
         <v>6</v>
       </c>
       <c r="W118">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>69.45</v>
       </c>
     </row>
-    <row r="119" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N119">
+        <v>76.75</v>
+      </c>
+      <c r="O119">
+        <v>97.5</v>
+      </c>
+      <c r="P119">
+        <v>82.5</v>
+      </c>
+      <c r="Q119">
+        <v>88.5</v>
+      </c>
+      <c r="R119">
+        <v>81.5</v>
+      </c>
       <c r="V119">
         <v>7</v>
       </c>
       <c r="W119">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>85.35</v>
       </c>
     </row>
-    <row r="120" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N120">
+        <v>89.5</v>
+      </c>
+      <c r="O120">
+        <v>89.75</v>
+      </c>
+      <c r="P120">
+        <v>81.25</v>
+      </c>
+      <c r="Q120">
+        <v>92.5</v>
+      </c>
+      <c r="R120">
+        <v>90.25</v>
+      </c>
       <c r="V120">
         <v>8</v>
       </c>
       <c r="W120">
-        <v>99.33</v>
+        <f t="shared" si="0"/>
+        <v>88.65</v>
       </c>
     </row>
-    <row r="121" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N121">
+        <v>88.75</v>
+      </c>
+      <c r="O121">
+        <v>95.25</v>
+      </c>
+      <c r="P121">
+        <v>92.5</v>
+      </c>
+      <c r="Q121">
+        <v>61.25</v>
+      </c>
+      <c r="R121">
+        <v>92.5</v>
+      </c>
       <c r="V121">
         <v>9</v>
       </c>
       <c r="W121">
+        <f t="shared" si="0"/>
+        <v>86.05</v>
+      </c>
+    </row>
+    <row r="122" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="N122" s="3">
+        <f>AVERAGE(N112:N121)</f>
+        <v>81.849999999999994</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" ref="O122:R122" si="1">AVERAGE(O112:O121)</f>
+        <v>89.575000000000003</v>
+      </c>
+      <c r="P122" s="3">
+        <f t="shared" si="1"/>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="Q122" s="3">
+        <f t="shared" si="1"/>
+        <v>76.650000000000006</v>
+      </c>
+      <c r="R122" s="3">
+        <f t="shared" si="1"/>
+        <v>75.525000000000006</v>
+      </c>
+      <c r="W122" s="3">
+        <f>AVERAGE(W112:W121)</f>
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="127" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>96.25</v>
+      </c>
+      <c r="L127">
+        <v>90</v>
+      </c>
+      <c r="M127">
+        <v>84.5</v>
+      </c>
+      <c r="N127">
+        <v>78.75</v>
+      </c>
+      <c r="O127">
+        <v>99</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <f>AVERAGE(K127:O127)</f>
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="128" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>93.25</v>
+      </c>
+      <c r="L128">
+        <v>99.5</v>
+      </c>
+      <c r="M128">
+        <v>85</v>
+      </c>
+      <c r="N128">
         <v>98</v>
       </c>
-    </row>
-    <row r="127" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V127">
-        <v>0</v>
-      </c>
-      <c r="W127">
-        <v>99.33</v>
-      </c>
-    </row>
-    <row r="128" spans="22:23" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>67</v>
+      </c>
       <c r="V128">
         <v>1</v>
       </c>
       <c r="W128">
-        <v>99</v>
+        <f>AVERAGE(K128:O128)</f>
+        <v>88.55</v>
       </c>
     </row>
-    <row r="129" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>64.75</v>
+      </c>
+      <c r="L129">
+        <v>35.5</v>
+      </c>
+      <c r="M129">
+        <v>69.5</v>
+      </c>
+      <c r="N129">
+        <v>89</v>
+      </c>
+      <c r="O129">
+        <v>25.5</v>
+      </c>
       <c r="V129">
         <v>2</v>
       </c>
       <c r="W129">
-        <v>87.67</v>
+        <f>AVERAGE(K129:O129)</f>
+        <v>56.85</v>
       </c>
     </row>
-    <row r="130" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>67</v>
+      </c>
+      <c r="L130">
+        <v>95</v>
+      </c>
+      <c r="M130">
+        <v>36.25</v>
+      </c>
+      <c r="N130">
+        <v>18.5</v>
+      </c>
+      <c r="O130">
+        <v>30.75</v>
+      </c>
       <c r="V130">
         <v>3</v>
       </c>
       <c r="W130">
-        <v>68.67</v>
+        <f t="shared" ref="W128:W136" si="2">AVERAGE(K130:O130)</f>
+        <v>49.5</v>
       </c>
     </row>
-    <row r="131" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>4</v>
+      </c>
+      <c r="K131">
+        <v>79.75</v>
+      </c>
+      <c r="L131">
+        <v>98</v>
+      </c>
+      <c r="M131">
+        <v>86.5</v>
+      </c>
+      <c r="N131">
+        <v>92</v>
+      </c>
+      <c r="O131">
+        <v>87.5</v>
+      </c>
       <c r="V131">
         <v>4</v>
       </c>
       <c r="W131">
-        <v>94.33</v>
+        <f t="shared" si="2"/>
+        <v>88.75</v>
       </c>
     </row>
-    <row r="132" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>5</v>
+      </c>
+      <c r="K132">
+        <v>96.75</v>
+      </c>
+      <c r="L132">
+        <v>57.75</v>
+      </c>
+      <c r="M132">
+        <v>65</v>
+      </c>
+      <c r="N132">
+        <v>91</v>
+      </c>
+      <c r="O132">
+        <v>94.75</v>
+      </c>
       <c r="V132">
         <v>5</v>
       </c>
       <c r="W132">
-        <v>94.33</v>
+        <f t="shared" si="2"/>
+        <v>81.05</v>
       </c>
     </row>
-    <row r="133" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>6</v>
+      </c>
+      <c r="K133">
+        <v>83</v>
+      </c>
+      <c r="L133">
+        <v>90.75</v>
+      </c>
+      <c r="M133">
+        <v>64.5</v>
+      </c>
+      <c r="N133">
+        <v>83.25</v>
+      </c>
+      <c r="O133">
+        <v>93.25</v>
+      </c>
       <c r="V133">
         <v>6</v>
       </c>
       <c r="W133">
-        <v>94.33</v>
+        <f t="shared" si="2"/>
+        <v>82.95</v>
       </c>
     </row>
-    <row r="134" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <v>71.5</v>
+      </c>
+      <c r="L134">
+        <v>99.5</v>
+      </c>
+      <c r="M134">
+        <v>81.25</v>
+      </c>
+      <c r="N134">
+        <v>91.25</v>
+      </c>
+      <c r="O134">
+        <v>81.25</v>
+      </c>
       <c r="V134">
         <v>7</v>
       </c>
       <c r="W134">
-        <v>96.33</v>
+        <f t="shared" si="2"/>
+        <v>84.95</v>
       </c>
     </row>
-    <row r="135" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>8</v>
+      </c>
+      <c r="K135">
+        <v>93.75</v>
+      </c>
+      <c r="L135">
+        <v>95.5</v>
+      </c>
+      <c r="M135">
+        <v>68</v>
+      </c>
+      <c r="N135">
+        <v>95.5</v>
+      </c>
+      <c r="O135">
+        <v>94</v>
+      </c>
       <c r="V135">
         <v>8</v>
       </c>
       <c r="W135">
-        <v>98.67</v>
+        <f t="shared" si="2"/>
+        <v>89.35</v>
       </c>
     </row>
-    <row r="136" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>9</v>
+      </c>
+      <c r="K136">
+        <v>91.25</v>
+      </c>
+      <c r="L136">
+        <v>87.5</v>
+      </c>
+      <c r="M136">
+        <v>87.25</v>
+      </c>
+      <c r="N136">
+        <v>66.25</v>
+      </c>
+      <c r="O136">
+        <v>85.5</v>
+      </c>
       <c r="V136">
         <v>9</v>
       </c>
       <c r="W136">
-        <v>93.33</v>
+        <f>AVERAGE(K136:O136)</f>
+        <v>83.55</v>
       </c>
     </row>
-    <row r="138" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="W138">
-        <v>92.47</v>
+    <row r="137" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="K137" s="3">
+        <f>AVERAGE(K127:K136)</f>
+        <v>83.724999999999994</v>
+      </c>
+      <c r="L137" s="3">
+        <f t="shared" ref="L137:O137" si="3">AVERAGE(L127:L136)</f>
+        <v>84.9</v>
+      </c>
+      <c r="M137" s="3">
+        <f t="shared" si="3"/>
+        <v>72.775000000000006</v>
+      </c>
+      <c r="N137" s="3">
+        <f t="shared" si="3"/>
+        <v>80.349999999999994</v>
+      </c>
+      <c r="O137" s="3">
+        <f t="shared" si="3"/>
+        <v>75.849999999999994</v>
+      </c>
+      <c r="W137" s="3">
+        <f>AVERAGE(W127:W136)</f>
+        <v>79.52000000000001</v>
       </c>
     </row>
-    <row r="144" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>97.75</v>
+      </c>
+      <c r="L144">
+        <v>85.75</v>
+      </c>
+      <c r="M144">
+        <v>83</v>
+      </c>
+      <c r="N144">
+        <v>88</v>
+      </c>
+      <c r="O144">
+        <v>93.75</v>
+      </c>
       <c r="W144">
-        <v>97.67</v>
+        <f>AVERAGE(K144:O144)</f>
+        <v>89.65</v>
       </c>
     </row>
-    <row r="145" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>95.75</v>
+      </c>
+      <c r="L145">
+        <v>99</v>
+      </c>
+      <c r="M145">
+        <v>92.75</v>
+      </c>
+      <c r="N145">
+        <v>98.5</v>
+      </c>
+      <c r="O145">
+        <v>63.5</v>
+      </c>
       <c r="W145">
-        <v>96</v>
+        <f t="shared" ref="W145:W153" si="4">AVERAGE(K145:O145)</f>
+        <v>89.9</v>
       </c>
     </row>
-    <row r="146" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>59.5</v>
+      </c>
+      <c r="L146">
+        <v>91</v>
+      </c>
+      <c r="M146">
+        <v>65.5</v>
+      </c>
+      <c r="N146">
+        <v>81</v>
+      </c>
+      <c r="O146">
+        <v>31.25</v>
+      </c>
       <c r="W146">
-        <v>87.67</v>
+        <f t="shared" si="4"/>
+        <v>65.650000000000006</v>
       </c>
     </row>
-    <row r="147" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>59.25</v>
+      </c>
+      <c r="L147">
+        <v>67.5</v>
+      </c>
+      <c r="M147">
+        <v>31.25</v>
+      </c>
+      <c r="N147">
+        <v>61</v>
+      </c>
+      <c r="O147">
+        <v>39.25</v>
+      </c>
       <c r="W147">
-        <v>59.67</v>
+        <f t="shared" si="4"/>
+        <v>51.65</v>
       </c>
     </row>
-    <row r="148" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>80.5</v>
+      </c>
+      <c r="L148">
+        <v>97.75</v>
+      </c>
+      <c r="M148">
+        <v>61</v>
+      </c>
+      <c r="N148">
+        <v>87.5</v>
+      </c>
+      <c r="O148">
+        <v>93.75</v>
+      </c>
       <c r="W148">
-        <v>93.33</v>
+        <f t="shared" si="4"/>
+        <v>84.1</v>
       </c>
     </row>
-    <row r="149" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>80.25</v>
+      </c>
+      <c r="L149">
+        <v>72.25</v>
+      </c>
+      <c r="M149">
+        <v>62.5</v>
+      </c>
+      <c r="N149">
+        <v>81.25</v>
+      </c>
+      <c r="O149">
+        <v>78.75</v>
+      </c>
       <c r="W149">
-        <v>54.33</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
     </row>
-    <row r="150" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>80</v>
+      </c>
+      <c r="L150">
+        <v>96.5</v>
+      </c>
+      <c r="M150">
+        <v>53.75</v>
+      </c>
+      <c r="N150">
+        <v>88</v>
+      </c>
+      <c r="O150">
+        <v>84</v>
+      </c>
       <c r="W150">
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>80.45</v>
       </c>
     </row>
-    <row r="151" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>70.5</v>
+      </c>
+      <c r="L151">
+        <v>99.5</v>
+      </c>
+      <c r="M151">
+        <v>71.5</v>
+      </c>
+      <c r="N151">
+        <v>84.75</v>
+      </c>
+      <c r="O151">
+        <v>79</v>
+      </c>
       <c r="W151">
+        <f t="shared" si="4"/>
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="152" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>84.25</v>
+      </c>
+      <c r="L152">
+        <v>95.75</v>
+      </c>
+      <c r="M152">
+        <v>65</v>
+      </c>
+      <c r="N152">
+        <v>92.5</v>
+      </c>
+      <c r="O152">
+        <v>96.5</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="4"/>
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="153" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>76</v>
+      </c>
+      <c r="L153">
+        <v>98.75</v>
+      </c>
+      <c r="M153">
+        <v>97.5</v>
+      </c>
+      <c r="N153">
+        <v>44</v>
+      </c>
+      <c r="O153">
         <v>88</v>
       </c>
+      <c r="W153">
+        <f t="shared" si="4"/>
+        <v>80.849999999999994</v>
+      </c>
     </row>
-    <row r="152" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="W152">
-        <v>95.67</v>
+    <row r="154" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K154" s="4">
+        <f>AVERAGE(K144:K153)</f>
+        <v>78.375</v>
+      </c>
+      <c r="L154" s="4">
+        <f t="shared" ref="L154:O154" si="5">AVERAGE(L144:L153)</f>
+        <v>90.375</v>
+      </c>
+      <c r="M154" s="4">
+        <f t="shared" si="5"/>
+        <v>68.375</v>
+      </c>
+      <c r="N154" s="4">
+        <f t="shared" si="5"/>
+        <v>80.650000000000006</v>
+      </c>
+      <c r="O154" s="4">
+        <f t="shared" si="5"/>
+        <v>74.775000000000006</v>
+      </c>
+      <c r="W154" s="3">
+        <f>AVERAGE(W144:W153)</f>
+        <v>78.510000000000005</v>
       </c>
     </row>
-    <row r="153" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="W153">
-        <v>91.33</v>
-      </c>
-    </row>
-    <row r="156" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="11:23" x14ac:dyDescent="0.25">
       <c r="V156" t="s">
         <v>2</v>
       </c>
       <c r="W156">
-        <v>92.17</v>
+        <v>81.61</v>
       </c>
     </row>
-    <row r="157" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="11:23" x14ac:dyDescent="0.25">
       <c r="V157" t="s">
         <v>1</v>
       </c>
       <c r="W157">
-        <v>93.4</v>
+        <v>81.63</v>
       </c>
     </row>
-    <row r="158" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="11:23" x14ac:dyDescent="0.25">
       <c r="V158" t="s">
         <v>0</v>
       </c>
       <c r="W158">
-        <v>92.47</v>
+        <v>80.72</v>
       </c>
     </row>
-    <row r="159" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="11:23" x14ac:dyDescent="0.25">
       <c r="V159" t="s">
         <v>3</v>
       </c>
       <c r="W159">
-        <v>90.03</v>
+        <v>81.66</v>
       </c>
     </row>
-    <row r="160" spans="22:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="11:23" x14ac:dyDescent="0.25">
       <c r="V160" t="s">
         <v>4</v>
       </c>
       <c r="W160">
-        <v>90.33</v>
+        <v>79.790000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/grafikai.xlsx
+++ b/grafikai.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CE9B6-88BE-4536-8462-075133D4F416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F07463-7296-4BEB-A434-46CB8BFBBB9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="1695" windowWidth="10860" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -247,7 +247,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -416,7 +416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -498,7 +498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -530,7 +530,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -572,7 +572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -609,7 +609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -698,7 +698,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -762,7 +762,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -932,7 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -1015,7 +1015,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1047,7 +1047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -1089,7 +1089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1126,7 +1126,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1215,7 +1215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1279,7 +1279,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1449,7 +1449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -1532,7 +1532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1564,7 +1564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -1606,7 +1606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1643,7 +1643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1732,7 +1732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1796,7 +1796,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1966,7 +1966,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1815435999"/>
@@ -2049,7 +2049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2081,7 +2081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1947210463"/>
@@ -2123,7 +2123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2160,7 +2160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2237,7 +2237,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2291,7 +2291,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2429,7 +2429,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2042212879"/>
@@ -2513,7 +2513,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2545,7 +2545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2096485871"/>
@@ -2587,7 +2587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2624,7 +2624,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2705,7 +2705,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2759,7 +2759,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2874,7 +2874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452468768"/>
@@ -2957,7 +2957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2989,7 +2989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452129232"/>
@@ -3031,7 +3031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3068,7 +3068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3149,7 +3149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3203,7 +3203,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3373,7 +3373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -3456,7 +3456,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3488,7 +3488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -3530,7 +3530,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3567,7 +3567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3648,7 +3648,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3702,7 +3702,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3872,7 +3872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -3955,7 +3955,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3987,7 +3987,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -4029,7 +4029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4066,7 +4066,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4147,7 +4147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4201,7 +4201,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4371,7 +4371,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -4454,7 +4454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4486,7 +4486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -4528,7 +4528,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4565,7 +4565,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4646,7 +4646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4700,7 +4700,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4870,7 +4870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -4953,7 +4953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4985,7 +4985,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -5027,7 +5027,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5064,7 +5064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5145,7 +5145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5199,7 +5199,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5369,7 +5369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377769344"/>
@@ -5452,7 +5452,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5484,7 +5484,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377893440"/>
@@ -5526,7 +5526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5563,7 +5563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5644,7 +5644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5698,7 +5698,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5868,7 +5868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377746048"/>
@@ -5951,7 +5951,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5983,7 +5983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377905040"/>
@@ -6025,7 +6025,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6062,7 +6062,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6151,7 +6151,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6205,7 +6205,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6374,7 +6374,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377783072"/>
@@ -6457,7 +6457,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6489,7 +6489,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1376509104"/>
@@ -6531,7 +6531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6568,7 +6568,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6649,7 +6649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6703,7 +6703,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6872,7 +6872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513108816"/>
@@ -6954,7 +6954,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6986,7 +6986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377885440"/>
@@ -7028,7 +7028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7065,7 +7065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7146,7 +7146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7200,7 +7200,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7370,7 +7370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377796384"/>
@@ -7453,7 +7453,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7485,7 +7485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1513166688"/>
@@ -7527,7 +7527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7564,7 +7564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7645,7 +7645,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7699,7 +7699,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7814,7 +7814,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452468768"/>
@@ -7897,7 +7897,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7929,7 +7929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452129232"/>
@@ -7971,7 +7971,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8008,7 +8008,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8089,7 +8089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8143,7 +8143,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8281,7 +8281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377756032"/>
@@ -8364,7 +8364,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8396,7 +8396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452128832"/>
@@ -8438,7 +8438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8475,7 +8475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8561,7 +8561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8615,7 +8615,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -8755,7 +8755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1452458784"/>
@@ -8838,7 +8838,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8870,7 +8870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1526741184"/>
@@ -8912,7 +8912,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8949,7 +8949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9030,7 +9030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9084,7 +9084,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="lt-LT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -9224,7 +9224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1377762272"/>
@@ -9307,7 +9307,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="lt-LT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9339,7 +9339,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="lt-LT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1453397520"/>
@@ -9381,7 +9381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="lt-LT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9418,7 +9418,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="lt-LT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20716,8 +20716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H127" workbookViewId="0">
-      <selection activeCell="P141" sqref="P141"/>
+    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
+      <selection activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26381,7 +26381,7 @@
         <v>3</v>
       </c>
       <c r="W130">
-        <f t="shared" ref="W128:W136" si="2">AVERAGE(K130:O130)</f>
+        <f t="shared" ref="W130:W135" si="2">AVERAGE(K130:O130)</f>
         <v>49.5</v>
       </c>
     </row>
